--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2540980.972953295</v>
+        <v>2536824.786645329</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>280.4397556978344</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>175.0245462166536</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.99390985022359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.5494891406049</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4574849160327</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>253.8207281244484</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>43.18443080422987</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.115602692011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>62.31585717828222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1153,7 +1153,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.32671447635957</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.5797204021575</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>100.5827519824195</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95525409457813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>108.6115798077509</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>167.1182337417839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>21.35866177150578</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6324680438217263</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>35.41770597126747</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.88943397770092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.35866177150488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>53.08838020946239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>22.04658882052576</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1596.00107839521</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="C2" t="n">
-        <v>1227.038561454799</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="D2" t="n">
-        <v>1227.038561454799</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="E2" t="n">
-        <v>841.2503088565545</v>
+        <v>570.3896856214128</v>
       </c>
       <c r="F2" t="n">
-        <v>430.264404066947</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
         <v>146.9919235640839</v>
@@ -4336,22 +4336,22 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>730.2783389764052</v>
       </c>
       <c r="M2" t="n">
-        <v>821.3880832278138</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1126.863189463399</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2271.467180090403</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2017.826318471989</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459332</v>
+        <v>1686.763431128418</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.600918459332</v>
+        <v>1333.994775858304</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.600918459332</v>
+        <v>960.5290175972245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.600918459332</v>
+        <v>570.3896856214128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.98268227996</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1459.316552713293</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.045200548714</v>
+        <v>1949.990352833222</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>784.7870673302518</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>784.7870673302518</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6704279179161</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1012.776618228269</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1012.776618228269</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1012.776618228269</v>
+        <v>1075.293734471623</v>
       </c>
       <c r="W4" t="n">
-        <v>1012.776618228269</v>
+        <v>1075.293734471623</v>
       </c>
       <c r="X4" t="n">
-        <v>784.7870673302518</v>
+        <v>847.3041835736055</v>
       </c>
       <c r="Y4" t="n">
-        <v>784.7870673302518</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.041740350785</v>
+        <v>1439.787835839973</v>
       </c>
       <c r="C5" t="n">
-        <v>1166.041740350785</v>
+        <v>1070.825318899561</v>
       </c>
       <c r="D5" t="n">
-        <v>1166.041740350785</v>
+        <v>712.5596202928107</v>
       </c>
       <c r="E5" t="n">
-        <v>780.2534877525409</v>
+        <v>326.7713676945664</v>
       </c>
       <c r="F5" t="n">
-        <v>369.2675829629333</v>
+        <v>319.825866945363</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>308.184429185899</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.641580414907</v>
+        <v>2216.527007879906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.641580414907</v>
+        <v>1826.387675904095</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>829.3743011903704</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.4771238846668</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C7" t="n">
-        <v>498.4771238846668</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D7" t="n">
-        <v>348.360484472331</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>410.2866287348305</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>263.3966812369201</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>95.42049249880949</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4758,19 +4758,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164276</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.18140495839</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1103.18140495839</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X7" t="n">
-        <v>875.1918540603722</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.1255887149065</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1220.039792576227</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.039792576227</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="D8" t="n">
-        <v>1220.039792576227</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E8" t="n">
-        <v>834.2515399779827</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2568.450630306279</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2359.805270765107</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2359.805270765107</v>
       </c>
       <c r="V8" t="n">
-        <v>2336.413538083233</v>
+        <v>2359.805270765107</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.644882813119</v>
+        <v>2007.036615494993</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.179124552039</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="Y8" t="n">
-        <v>1220.039792576227</v>
+        <v>1633.570857233913</v>
       </c>
     </row>
     <row r="9">
@@ -4868,16 +4868,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4886,22 +4886,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1365.112030949042</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
-        <v>1755.521592274785</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2090.450272990316</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2339.927000855335</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.4473908899379</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C10" t="n">
-        <v>200.4473908899379</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1153.887671813683</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>864.7698948240818</v>
+        <v>1545.384930777697</v>
       </c>
       <c r="V10" t="n">
-        <v>610.085406618195</v>
+        <v>1290.70044257181</v>
       </c>
       <c r="W10" t="n">
-        <v>610.085406618195</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="X10" t="n">
-        <v>382.0958557201776</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.0958557201776</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061504</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380845</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101776</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978418</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154487</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>274.8772357154487</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782908</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038295</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611854</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683242</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938885</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958744</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679675</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2359.115042518991</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2393.338457106056</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2393.338457106056</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2104.263230450254</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207406</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>424.9938751277886</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>424.9938751277886</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>257.7977758426685</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0859446848666</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426206</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>320.7701244800495</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>56.93327224077808</v>
+        <v>196.3826133675378</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
-        <v>232.4400048971988</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530994</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.3489695567893</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-5.91971315289126e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>126.5688841976907</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>177.5728945814932</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>119.4047645948071</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>127.2568112467066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>145.6085800303771</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>127.9379057921822</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.21924749803978</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792457.4303828669</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26328,7 +26328,7 @@
         <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
@@ -26343,19 +26343,19 @@
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694897</v>
+        <v>6287.480531695035</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694946</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.48053169493</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26447,16 +26447,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695037</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552506.4779427296</v>
+        <v>-552506.47794273</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681695</v>
+        <v>240995.1677681699</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580617</v>
+        <v>413759.5275580622</v>
       </c>
       <c r="E6" t="n">
-        <v>17239.73665840189</v>
+        <v>16892.35740404507</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041525</v>
+        <v>517781.2251497955</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.604404153</v>
+        <v>517781.2251497956</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041528</v>
+        <v>517781.2251497959</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.6044041531</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="J6" t="n">
-        <v>348714.5875781046</v>
+        <v>348367.2083237476</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041531</v>
+        <v>517781.2251497959</v>
       </c>
       <c r="M6" t="n">
-        <v>387244.1474999172</v>
+        <v>386896.7682455605</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497958</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497957</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041527</v>
+        <v>517781.2251497956</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644026</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>131.8479829972098</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34.87314601252984</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>127.1731377820927</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>18.58815418322305</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>162.0675384658366</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>46.96555912401132</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.9766294072171</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27830,19 +27830,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.46905066008375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.5601885634292</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>101.6086942980934</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,7 +28028,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>28.12550831128095</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>185.6438472372861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.775416340280336e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28332,19 +28332,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -31287,25 +31287,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31314,7 +31314,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31366,22 +31366,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31393,13 +31393,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,10 +31463,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31475,10 +31475,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31536,16 +31536,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31618,7 +31618,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31633,7 +31633,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31679,7 +31679,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>485.11270320829</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>173.3851399586636</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>152.5685698206133</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34704,25 +34704,25 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>447.0541449741277</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>598.665295506953</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>231.0029297697778</v>
+        <v>370.4522708965375</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34941,25 +34941,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342472</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L6" t="n">
-        <v>532.7551050146884</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352464</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35111,10 +35111,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.385208115341</v>
@@ -35184,19 +35184,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352464</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482247</v>
@@ -35269,10 +35269,10 @@
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>224.3786557865516</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35345,7 +35345,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5164587638456</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326294831</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396426</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>31.25110603664532</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>25.73094315394658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2536824.786645329</v>
+        <v>2538585.316948114</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>324.7479654391674</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -712,7 +712,7 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>175.0245462166536</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.3688280356565</v>
       </c>
       <c r="V4" t="n">
-        <v>233.5494891406049</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>255.8073701777943</v>
       </c>
       <c r="H5" t="n">
-        <v>253.8207281244484</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.18443080422987</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>240.6973648186839</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>19.39803470724789</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.32671447635957</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.5667393418051</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>100.5827519824195</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.96105405076429</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>108.6115798077509</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6324680438217263</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.3896856214128</v>
+        <v>891.4724327905603</v>
       </c>
       <c r="C2" t="n">
-        <v>570.3896856214128</v>
+        <v>891.4724327905603</v>
       </c>
       <c r="D2" t="n">
-        <v>570.3896856214128</v>
+        <v>891.4724327905603</v>
       </c>
       <c r="E2" t="n">
-        <v>570.3896856214128</v>
+        <v>891.4724327905603</v>
       </c>
       <c r="F2" t="n">
         <v>563.4441848722093</v>
@@ -4336,7 +4336,7 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764052</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
         <v>1371.301548596299</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2271.467180090403</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2017.826318471989</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.763431128418</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.994775858304</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>960.5290175972245</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>570.3896856214128</v>
+        <v>1278.072272854682</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648431</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081764</v>
+        <v>1723.657007090155</v>
       </c>
       <c r="O3" t="n">
-        <v>1949.990352833222</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4521,19 +4521,19 @@
         <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1141.132786092783</v>
       </c>
       <c r="V4" t="n">
-        <v>1075.293734471623</v>
+        <v>886.4482978868959</v>
       </c>
       <c r="W4" t="n">
-        <v>1075.293734471623</v>
+        <v>886.4482978868959</v>
       </c>
       <c r="X4" t="n">
-        <v>847.3041835736055</v>
+        <v>886.4482978868959</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3041835736055</v>
+        <v>665.6557187433658</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.787835839973</v>
+        <v>1106.965295718545</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.825318899561</v>
+        <v>1106.965295718545</v>
       </c>
       <c r="D5" t="n">
-        <v>712.5596202928107</v>
+        <v>1106.965295718545</v>
       </c>
       <c r="E5" t="n">
-        <v>326.7713676945664</v>
+        <v>721.1770431203004</v>
       </c>
       <c r="F5" t="n">
-        <v>319.825866945363</v>
+        <v>310.1911383306928</v>
       </c>
       <c r="G5" t="n">
-        <v>308.184429185899</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4567,16 +4567,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539972</v>
@@ -4585,7 +4585,7 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>1883.704467758478</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.387675904095</v>
+        <v>1493.565135782666</v>
       </c>
     </row>
     <row r="6">
@@ -4640,22 +4640,22 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
         <v>1652.830557277516</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>727.1359052451305</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C7" t="n">
-        <v>558.1997223172236</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D7" t="n">
-        <v>558.1997223172236</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>410.2866287348305</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>263.3966812369201</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>95.42049249880949</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4761,16 +4761,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1403.855018821874</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.566500116918</v>
+        <v>1114.437848784913</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.5769492189</v>
+        <v>886.4482978868959</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.7843700753702</v>
+        <v>665.6557187433658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1633.570857233913</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="C8" t="n">
-        <v>1633.570857233913</v>
+        <v>1303.565593677823</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>945.2998950710726</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>559.5116424728283</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>148.5257376832207</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>136.8842999237567</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2568.450630306279</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2359.805270765107</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2359.805270765107</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2359.805270765107</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2007.036615494993</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X8" t="n">
-        <v>1633.570857233913</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1633.570857233913</v>
+        <v>1672.528110618235</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4886,25 +4886,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8526776630624</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351555</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>443.9397129654998</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4992,22 +4992,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U10" t="n">
-        <v>1545.384930777697</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.70044257181</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.28327253485</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="X10" t="n">
-        <v>773.2937216368322</v>
+        <v>590.8296604634102</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.501142493302</v>
+        <v>590.8296604634102</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5126,19 +5126,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>135.191465119451</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832146</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795185</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,19 +7010,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7984,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426206</v>
+        <v>407.4751802037394</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942334</v>
+        <v>147.9929666331146</v>
       </c>
       <c r="N2" t="n">
         <v>338.9374781659683</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>22.26125001357786</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>196.3826133675378</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>35.38972270187077</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740396</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-5.91971315289126e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>177.5728945814932</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.8014946027475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828671</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792457.4303828671</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552506.47794273</v>
+        <v>-552506.4779427298</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681699</v>
+        <v>240995.1677681702</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580622</v>
+        <v>413759.5275580618</v>
       </c>
       <c r="E6" t="n">
-        <v>16892.35740404507</v>
+        <v>17204.99873296607</v>
       </c>
       <c r="F6" t="n">
-        <v>517781.2251497955</v>
+        <v>518093.866478717</v>
       </c>
       <c r="G6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.866478717</v>
       </c>
       <c r="H6" t="n">
-        <v>517781.2251497959</v>
+        <v>518093.866478717</v>
       </c>
       <c r="I6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.8664787171</v>
       </c>
       <c r="J6" t="n">
-        <v>348367.2083237476</v>
+        <v>348679.8496526686</v>
       </c>
       <c r="K6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="L6" t="n">
-        <v>517781.2251497959</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="M6" t="n">
-        <v>386896.7682455605</v>
+        <v>387209.4095744818</v>
       </c>
       <c r="N6" t="n">
-        <v>517781.2251497958</v>
+        <v>518093.866478717</v>
       </c>
       <c r="O6" t="n">
-        <v>517781.2251497957</v>
+        <v>518093.866478717</v>
       </c>
       <c r="P6" t="n">
-        <v>517781.2251497956</v>
+        <v>518093.866478717</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>82.12808030254399</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34.87314601252984</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>117.8764327021624</v>
       </c>
       <c r="V4" t="n">
-        <v>18.58815418322305</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>155.717653204075</v>
       </c>
       <c r="H5" t="n">
-        <v>46.96555912401132</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>103.9766294072171</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27833,7 +27833,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>11.44027850514408</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>281.3882525412118</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>101.6086942980934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>29.7296875089244</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>185.6438472372861</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33736,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34704,10 +34704,10 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741277</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>447.0541449741278</v>
       </c>
       <c r="N2" t="n">
         <v>647.4981915352465</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>310.4772807543184</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4522708965375</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873429</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342472</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671838</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>429.7428149500954</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671838</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
